--- a/public/recommend.xlsx
+++ b/public/recommend.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwg95\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwg95\Desktop\node.js\Server\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25943EF7-68E7-47F7-8B2A-B4BE5DD06000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A332677-0396-400F-88BB-6C4DF4152748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16830" yWindow="2790" windowWidth="12075" windowHeight="12795" xr2:uid="{D8826B3C-1B1A-4522-9D8E-4BAC2F00E189}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8826B3C-1B1A-4522-9D8E-4BAC2F00E189}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="245">
   <si>
     <t>학수번호</t>
   </si>
@@ -71,20 +71,6 @@
     <t>자연과과학기술</t>
   </si>
   <si>
-    <r>
-      <t>2252</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>동서양고전문학강독</t>
   </si>
   <si>
@@ -94,91 +80,21 @@
     <t>고급프로그래밍입문-P</t>
   </si>
   <si>
-    <r>
-      <t>1727</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>과학사</t>
   </si>
   <si>
-    <r>
-      <t>1571</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>프로그래밍입문-P</t>
   </si>
   <si>
-    <r>
-      <t>1448</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>컴퓨팅사고기반기초코딩</t>
   </si>
   <si>
-    <r>
-      <t>1429</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>정보사회의사이버윤리</t>
   </si>
   <si>
     <t>고급프로그래밍입문-C</t>
   </si>
   <si>
-    <r>
-      <t>1353</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>동양고전강독1</t>
   </si>
   <si>
@@ -203,20 +119,6 @@
     <t>유니스토리</t>
   </si>
   <si>
-    <r>
-      <t>815</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>서양고전강독1</t>
   </si>
   <si>
@@ -244,20 +146,6 @@
     <t>K-MOOC:코딩과스토리텔링</t>
   </si>
   <si>
-    <r>
-      <t>538</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>창업과기업가정신2</t>
   </si>
   <si>
@@ -270,57 +158,15 @@
     <t>현대과학으로의여행</t>
   </si>
   <si>
-    <r>
-      <t>381</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>인간과우주</t>
   </si>
   <si>
-    <r>
-      <t>339</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>채플1</t>
   </si>
   <si>
     <t>천문학의세계</t>
   </si>
   <si>
-    <r>
-      <t>313</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>채플2</t>
   </si>
   <si>
@@ -339,20 +185,6 @@
     <t>K-MOOC:정보보호와보안의기초</t>
   </si>
   <si>
-    <r>
-      <t>206</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>진로오딧세이</t>
   </si>
   <si>
@@ -362,20 +194,6 @@
     <t>세종사회봉사1</t>
   </si>
   <si>
-    <r>
-      <t>197</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>세종리더십</t>
   </si>
   <si>
@@ -391,20 +209,6 @@
     <t>세계와지구촌</t>
   </si>
   <si>
-    <r>
-      <t>161</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>세계경제의이해</t>
   </si>
   <si>
@@ -417,20 +221,6 @@
     <t>고급프로그래밍입문</t>
   </si>
   <si>
-    <r>
-      <t>132</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>영상스토리텔링</t>
   </si>
   <si>
@@ -449,20 +239,6 @@
     <t>과학기술과사회</t>
   </si>
   <si>
-    <r>
-      <t>92</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>중국의정치경제와사회</t>
   </si>
   <si>
@@ -472,91 +248,21 @@
     <t>K-MOOC:일반인을위한물리코딩</t>
   </si>
   <si>
-    <r>
-      <t>83</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>지구환경과학입문</t>
   </si>
   <si>
-    <r>
-      <t>76</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>동양의철학사상-노장과불교</t>
   </si>
   <si>
     <t>인공지능과빅데이터</t>
   </si>
   <si>
-    <r>
-      <t>74</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>세계화와글로벌거버넌스</t>
   </si>
   <si>
-    <r>
-      <t>73</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>국가와정체성</t>
   </si>
   <si>
-    <r>
-      <t>71</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>현대과학기술의이해</t>
   </si>
   <si>
@@ -569,37 +275,9 @@
     <t>인도의정치경제와사회</t>
   </si>
   <si>
-    <r>
-      <t>68</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>역사와한국의영토</t>
   </si>
   <si>
-    <r>
-      <t>67</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>생명과학의미래</t>
   </si>
   <si>
@@ -612,20 +290,6 @@
     <t>K-MOOC:게임인공지능</t>
   </si>
   <si>
-    <r>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>그리스로마신화의이해</t>
   </si>
   <si>
@@ -635,88 +299,18 @@
     <t>K-MOOC:융합예술과문화공간기획</t>
   </si>
   <si>
-    <r>
-      <t>63</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>영어읽기연습</t>
   </si>
   <si>
-    <r>
-      <t>62</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>우리차문화의이해</t>
   </si>
   <si>
-    <r>
-      <t>59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>철학과인간이해</t>
   </si>
   <si>
-    <r>
-      <t>58</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>SHP고전강좌:Reading Intellectus 1</t>
   </si>
   <si>
-    <r>
-      <t>57</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>동양의철학사상-공맹과성리학</t>
   </si>
   <si>
@@ -726,20 +320,6 @@
     <t>서양종교의이해</t>
   </si>
   <si>
-    <r>
-      <t>55</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>기후변화와창조경영</t>
   </si>
   <si>
@@ -752,131 +332,33 @@
     <t>English Reading</t>
   </si>
   <si>
-    <r>
-      <t>53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>K-MOOC:빅데이터와텍스트마이닝</t>
   </si>
   <si>
-    <r>
-      <t>52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>현대사회와다문화주의</t>
   </si>
   <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>미술심리치료</t>
   </si>
   <si>
     <t>21세기외교전쟁</t>
   </si>
   <si>
-    <r>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>동양종교의이해</t>
   </si>
   <si>
     <t>프로그래밍입문</t>
   </si>
   <si>
-    <r>
-      <t>44</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>지구의이해</t>
   </si>
   <si>
-    <r>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>EU의정치경제와사회</t>
   </si>
   <si>
     <t>대학생을위한실용금융</t>
   </si>
   <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>일본어1</t>
   </si>
   <si>
@@ -889,40 +371,12 @@
     <t>식생활과건강</t>
   </si>
   <si>
-    <r>
-      <t>36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>여성학</t>
   </si>
   <si>
     <t>K-MOOC:4차산업혁명과사물인터넷입문</t>
   </si>
   <si>
-    <r>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>생활일본어</t>
   </si>
   <si>
@@ -932,54 +386,12 @@
     <t>생명의미시적세계</t>
   </si>
   <si>
-    <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>성과문화</t>
   </si>
   <si>
-    <r>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>두뇌로알아보는우리의삶</t>
   </si>
   <si>
-    <r>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>미래사회와사회변동</t>
   </si>
   <si>
@@ -989,57 +401,15 @@
     <t>자기주도창의교양Ⅱ</t>
   </si>
   <si>
-    <r>
-      <t>26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>융합적사고</t>
   </si>
   <si>
     <t>SHP고전강좌:Reading Intellectus 2</t>
   </si>
   <si>
-    <r>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>자기주도창의교양Ⅰ</t>
   </si>
   <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>신화와예술</t>
   </si>
   <si>
@@ -1049,20 +419,6 @@
     <t>교선2</t>
   </si>
   <si>
-    <r>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>식물의세계</t>
   </si>
   <si>
@@ -1072,60 +428,18 @@
     <t>중급미술심리치료</t>
   </si>
   <si>
-    <r>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>문화콘텐츠와성서</t>
   </si>
   <si>
     <t>미생물의세계</t>
   </si>
   <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>발레의이해와감상</t>
   </si>
   <si>
     <t>스피치커뮤니케이션</t>
   </si>
   <si>
-    <r>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>웰빙레저스포츠</t>
   </si>
   <si>
@@ -1135,20 +449,6 @@
     <t>운동과다이어트</t>
   </si>
   <si>
-    <r>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>곤충의새로운가치</t>
   </si>
   <si>
@@ -1158,37 +458,9 @@
     <t>행복한가정만들기</t>
   </si>
   <si>
-    <r>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>SHP고전강좌:Writing Intellectus 1</t>
   </si>
   <si>
-    <r>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>독서토론</t>
   </si>
   <si>
@@ -1198,40 +470,12 @@
     <t>먹고즐기는자연</t>
   </si>
   <si>
-    <r>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>보컬트레이닝</t>
   </si>
   <si>
     <t>건강과삶</t>
   </si>
   <si>
-    <r>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>스쿼시</t>
   </si>
   <si>
@@ -1241,20 +485,6 @@
     <t>영어발음연습</t>
   </si>
   <si>
-    <r>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>영상매체속의영어</t>
   </si>
   <si>
@@ -1264,708 +494,36 @@
     <t>과학철학</t>
   </si>
   <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>English Speaking Strategies(TS) 1</t>
   </si>
   <si>
-    <r>
-      <t>318</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>293</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>229</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>226</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1904</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1178</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>994</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>969</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>832</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>796</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>779</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>583</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>175</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>173</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>66</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>523</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>205</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>69</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>109</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>63</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>재난대응과안전리더십</t>
   </si>
   <si>
     <t>사회와제도</t>
   </si>
   <si>
-    <r>
-      <t>194</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>K-MOOC:모빌리티디자인방법론</t>
   </si>
   <si>
     <t>예술과생활</t>
   </si>
   <si>
-    <r>
-      <t>139</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>169</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>107</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>95</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>55</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>412</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>한일교류사</t>
   </si>
   <si>
     <t>역사와문화</t>
   </si>
   <si>
-    <r>
-      <t>118</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>21세기기업의인재상</t>
   </si>
   <si>
     <t>인성과도덕</t>
   </si>
   <si>
-    <r>
-      <t>41</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>문화기술과사회변동</t>
   </si>
   <si>
-    <r>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>현대인의삶과와인</t>
   </si>
   <si>
@@ -1981,20 +539,6 @@
     <t>생태친화적기업경영</t>
   </si>
   <si>
-    <r>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>문화콘텐츠스토리텔링전략</t>
   </si>
   <si>
@@ -2004,20 +548,6 @@
     <t>취업리더쉽1:성공DNA</t>
   </si>
   <si>
-    <r>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>나이의문화사</t>
   </si>
   <si>
@@ -2030,449 +560,15 @@
     <t>경력개발과멘토링</t>
   </si>
   <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4129</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1893</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1395</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>136</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>76</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>68</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>58</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>57</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>154</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>148</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>133</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>101</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>71</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>49</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>34</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>38</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>87</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>73</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>인간관계심리학</t>
   </si>
   <si>
-    <r>
-      <t>274</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>웰니스와삶의질</t>
   </si>
   <si>
-    <r>
-      <t>248</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>지구촌문화의이해와테마여행</t>
   </si>
   <si>
-    <r>
-      <t>245</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>알기쉬운코딩</t>
   </si>
   <si>
@@ -2482,233 +578,51 @@
     <t>인간행동의심리적이해</t>
   </si>
   <si>
-    <r>
-      <t>158</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>커피아카데미</t>
   </si>
   <si>
-    <r>
-      <t>146</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>푸른바다생물이야기</t>
   </si>
   <si>
-    <r>
-      <t>144</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>한일문화와의만남</t>
   </si>
   <si>
-    <r>
-      <t>128</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>인물로보는세계사</t>
   </si>
   <si>
-    <r>
-      <t>117</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>컴퓨터활용</t>
   </si>
   <si>
-    <r>
-      <t>108</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>가족스트레스와대처</t>
   </si>
   <si>
     <t>유대인의창의성과리더십</t>
   </si>
   <si>
-    <r>
-      <t>102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>음악감상의이해</t>
   </si>
   <si>
     <t>영화및사진치료</t>
   </si>
   <si>
-    <r>
-      <t>90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>컬러테라피</t>
   </si>
   <si>
-    <r>
-      <t>84</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>패션디자인의이해</t>
   </si>
   <si>
-    <r>
-      <t>82</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>커뮤니케이션의이해</t>
   </si>
   <si>
-    <r>
-      <t>80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>어른들을위한생활속의수학</t>
   </si>
   <si>
     <t>인류의역사와전쟁</t>
   </si>
   <si>
-    <r>
-      <t>78</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>한글의세계화</t>
   </si>
   <si>
-    <r>
-      <t>77</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>생활재테크</t>
   </si>
   <si>
@@ -2727,37 +641,9 @@
     <t>음식과세계문화</t>
   </si>
   <si>
-    <r>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>시사로보는경제이야기</t>
   </si>
   <si>
-    <r>
-      <t>54</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>문화행정론</t>
   </si>
   <si>
@@ -2770,20 +656,6 @@
     <t>글로벌시대의예술과가치</t>
   </si>
   <si>
-    <r>
-      <t>47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>반도체개론</t>
   </si>
   <si>
@@ -2796,20 +668,6 @@
     <t>정보사회학입문</t>
   </si>
   <si>
-    <r>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
-  </si>
-  <si>
     <t>동서양음식문화사</t>
   </si>
   <si>
@@ -2898,20 +756,6 @@
   </si>
   <si>
     <t>헬스트레이닝</t>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 회</t>
-    </r>
   </si>
   <si>
     <t>생활속의심리학</t>
@@ -3373,7 +1217,7 @@
   <dimension ref="A1:F228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="F228" sqref="F228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3403,7 +1247,7 @@
         <v>4558</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -3414,8 +1258,8 @@
       <c r="E2" s="3">
         <v>0.5</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>210</v>
+      <c r="F2" s="4">
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3423,7 +1267,7 @@
         <v>4627</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -3434,8 +1278,8 @@
       <c r="E3" s="3">
         <v>0.5</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>211</v>
+      <c r="F3" s="4">
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3443,7 +1287,7 @@
         <v>4794</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -3454,8 +1298,8 @@
       <c r="E4" s="3">
         <v>0.5</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>212</v>
+      <c r="F4" s="4">
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3463,7 +1307,7 @@
         <v>4777</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -3474,8 +1318,8 @@
       <c r="E5" s="3">
         <v>0.5</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>213</v>
+      <c r="F5" s="4">
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3483,7 +1327,7 @@
         <v>9938</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -3494,8 +1338,8 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>214</v>
+      <c r="F6" s="4">
+        <v>1904</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3503,7 +1347,7 @@
         <v>8913</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -3514,8 +1358,8 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>215</v>
+      <c r="F7" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3523,7 +1367,7 @@
         <v>8932</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -3534,8 +1378,8 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>216</v>
+      <c r="F8" s="4">
+        <v>994</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3543,7 +1387,7 @@
         <v>9057</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -3554,8 +1398,8 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>217</v>
+      <c r="F9" s="4">
+        <v>969</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3563,7 +1407,7 @@
         <v>8933</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -3574,8 +1418,8 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>218</v>
+      <c r="F10" s="4">
+        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3583,7 +1427,7 @@
         <v>8914</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -3594,8 +1438,8 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>219</v>
+      <c r="F11" s="4">
+        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3603,7 +1447,7 @@
         <v>9058</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -3614,8 +1458,8 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>220</v>
+      <c r="F12" s="4">
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3623,7 +1467,7 @@
         <v>10360</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -3634,8 +1478,8 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>221</v>
+      <c r="F13" s="4">
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3643,7 +1487,7 @@
         <v>9780</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -3654,8 +1498,8 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>222</v>
+      <c r="F14" s="4">
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3663,7 +1507,7 @@
         <v>10357</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -3674,8 +1518,8 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>223</v>
+      <c r="F15" s="4">
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3683,19 +1527,19 @@
         <v>11240</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>224</v>
+      <c r="F16" s="4">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3703,19 +1547,19 @@
         <v>10108</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>225</v>
+      <c r="F17" s="4">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3723,19 +1567,19 @@
         <v>9452</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>226</v>
+      <c r="F18" s="4">
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3743,39 +1587,39 @@
         <v>10651</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>11239</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>228</v>
+      <c r="F20" s="4">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3783,19 +1627,19 @@
         <v>10544</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>229</v>
+      <c r="F21" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3803,19 +1647,19 @@
         <v>10413</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>230</v>
+      <c r="F22" s="4">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3823,19 +1667,19 @@
         <v>8365</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>231</v>
+      <c r="F23" s="4">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3843,19 +1687,19 @@
         <v>8364</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>232</v>
+      <c r="F24" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3863,7 +1707,7 @@
         <v>10543</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
@@ -3874,8 +1718,8 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>44</v>
+      <c r="F25" s="2">
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3883,7 +1727,7 @@
         <v>10542</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -3894,8 +1738,8 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>87</v>
+      <c r="F26" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3903,7 +1747,7 @@
         <v>10409</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -3914,8 +1758,8 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>108</v>
+      <c r="F27" s="2">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="126.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3923,7 +1767,7 @@
         <v>10137</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
@@ -3934,8 +1778,8 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>152</v>
+      <c r="F28" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3943,19 +1787,19 @@
         <v>7503</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>114</v>
+      <c r="F29" s="2">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3963,19 +1807,19 @@
         <v>7504</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>124</v>
+      <c r="F30" s="2">
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3983,19 +1827,19 @@
         <v>10410</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>233</v>
+      <c r="F31" s="4">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.35">
@@ -4003,19 +1847,19 @@
         <v>11324</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>234</v>
+      <c r="F32" s="4">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4023,19 +1867,19 @@
         <v>11323</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>235</v>
+      <c r="F33" s="4">
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4043,19 +1887,19 @@
         <v>5565</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>236</v>
+      <c r="F34" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4063,19 +1907,19 @@
         <v>285</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>236</v>
+      <c r="F35" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4083,19 +1927,19 @@
         <v>10135</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>239</v>
+      <c r="F36" s="4">
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4103,19 +1947,19 @@
         <v>10411</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>242</v>
+      <c r="F37" s="4">
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4123,7 +1967,7 @@
         <v>10110</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -4134,8 +1978,8 @@
       <c r="E38" s="3">
         <v>2</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>243</v>
+      <c r="F38" s="4">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4143,7 +1987,7 @@
         <v>9033</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -4154,8 +1998,8 @@
       <c r="E39" s="3">
         <v>2</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>244</v>
+      <c r="F39" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4163,19 +2007,19 @@
         <v>7779</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>245</v>
+      <c r="F40" s="4">
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4183,19 +2027,19 @@
         <v>7565</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>246</v>
+      <c r="F41" s="4">
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4203,19 +2047,19 @@
         <v>10356</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>247</v>
+      <c r="F42" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4223,19 +2067,19 @@
         <v>6422</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>248</v>
+      <c r="F43" s="4">
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4243,19 +2087,19 @@
         <v>600039</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>249</v>
+      <c r="F44" s="4">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4263,19 +2107,19 @@
         <v>10083</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>250</v>
+      <c r="F45" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4283,19 +2127,19 @@
         <v>7082</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>251</v>
+      <c r="F46" s="4">
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4303,19 +2147,19 @@
         <v>7221</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>252</v>
+      <c r="F47" s="4">
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4323,19 +2167,19 @@
         <v>7564</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>253</v>
+      <c r="F48" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4343,19 +2187,19 @@
         <v>8381</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>229</v>
+      <c r="F49" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4363,19 +2207,19 @@
         <v>10414</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>254</v>
+      <c r="F50" s="4">
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4383,7 +2227,7 @@
         <v>9936</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -4394,8 +2238,8 @@
       <c r="E51" s="3">
         <v>2</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>255</v>
+      <c r="F51" s="4">
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4403,19 +2247,19 @@
         <v>10532</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>71</v>
+      <c r="F52" s="2">
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4423,19 +2267,19 @@
         <v>9981</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>120</v>
+      <c r="F53" s="2">
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4443,19 +2287,19 @@
         <v>9982</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>129</v>
+      <c r="F54" s="2">
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4463,19 +2307,19 @@
         <v>9073</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>208</v>
+      <c r="F55" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4483,19 +2327,19 @@
         <v>6283</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E56" s="3">
         <v>2</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>256</v>
+      <c r="F56" s="4">
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4503,19 +2347,19 @@
         <v>9061</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E57" s="3">
         <v>2</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>257</v>
+      <c r="F57" s="4">
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4523,19 +2367,19 @@
         <v>6709</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E58" s="3">
         <v>2</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>231</v>
+      <c r="F58" s="4">
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4543,19 +2387,19 @@
         <v>6425</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>244</v>
+      <c r="F59" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4563,19 +2407,19 @@
         <v>6711</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>236</v>
+      <c r="F60" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4583,19 +2427,19 @@
         <v>6096</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E61" s="3">
         <v>2</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>260</v>
+      <c r="F61" s="4">
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4603,19 +2447,19 @@
         <v>600016</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>263</v>
+      <c r="F62" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4623,19 +2467,19 @@
         <v>600008</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>264</v>
+        <v>162</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>265</v>
+      <c r="F63" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4643,19 +2487,19 @@
         <v>7319</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E64" s="3">
         <v>2</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>265</v>
+      <c r="F64" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4663,19 +2507,19 @@
         <v>6429</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>267</v>
+        <v>164</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>248</v>
+      <c r="F65" s="4">
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4683,19 +2527,19 @@
         <v>600025</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>268</v>
+        <v>165</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E66" s="3">
         <v>2</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>256</v>
+      <c r="F66" s="4">
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4703,19 +2547,19 @@
         <v>600009</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E67" s="3">
         <v>2</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>254</v>
+      <c r="F67" s="4">
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4723,19 +2567,19 @@
         <v>600015</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E68" s="3">
         <v>3</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>271</v>
+      <c r="F68" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4743,19 +2587,19 @@
         <v>600018</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>272</v>
+        <v>168</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E69" s="3">
         <v>3</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>271</v>
+      <c r="F69" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4763,19 +2607,19 @@
         <v>600014</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E70" s="3">
         <v>2</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>271</v>
+      <c r="F70" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4783,19 +2627,19 @@
         <v>600040</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>274</v>
+        <v>170</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E71" s="3">
         <v>2</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>275</v>
+      <c r="F71" s="4">
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4803,19 +2647,19 @@
         <v>600024</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E72" s="3">
         <v>2</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>231</v>
+      <c r="F72" s="4">
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4823,19 +2667,19 @@
         <v>7499</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="E73" s="3">
         <v>2</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>244</v>
+      <c r="F73" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4843,19 +2687,19 @@
         <v>6716</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E74" s="3">
         <v>2</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>280</v>
+      <c r="F74" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4874,8 +2718,8 @@
       <c r="E75" s="3">
         <v>3</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>281</v>
+      <c r="F75" s="4">
+        <v>4129</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4883,7 +2727,7 @@
         <v>9031</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
@@ -4894,8 +2738,8 @@
       <c r="E76" s="3">
         <v>3</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>282</v>
+      <c r="F76" s="4">
+        <v>1893</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4903,7 +2747,7 @@
         <v>6279</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>7</v>
@@ -4914,8 +2758,8 @@
       <c r="E77" s="3">
         <v>3</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>283</v>
+      <c r="F77" s="4">
+        <v>1395</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4923,7 +2767,7 @@
         <v>8882</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -4934,8 +2778,8 @@
       <c r="E78" s="3">
         <v>3</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>284</v>
+      <c r="F78" s="4">
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4943,7 +2787,7 @@
         <v>9740</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -4954,8 +2798,8 @@
       <c r="E79" s="3">
         <v>3</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>285</v>
+      <c r="F79" s="4">
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4963,7 +2807,7 @@
         <v>7210</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -4974,8 +2818,8 @@
       <c r="E80" s="3">
         <v>3</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>286</v>
+      <c r="F80" s="4">
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4983,7 +2827,7 @@
         <v>8888</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -4994,8 +2838,8 @@
       <c r="E81" s="3">
         <v>3</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>234</v>
+      <c r="F81" s="4">
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5003,7 +2847,7 @@
         <v>7731</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>7</v>
@@ -5014,8 +2858,8 @@
       <c r="E82" s="3">
         <v>3</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>287</v>
+      <c r="F82" s="4">
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5023,7 +2867,7 @@
         <v>10359</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>7</v>
@@ -5034,8 +2878,8 @@
       <c r="E83" s="3">
         <v>3</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>288</v>
+      <c r="F83" s="4">
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5043,7 +2887,7 @@
         <v>9776</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>7</v>
@@ -5054,8 +2898,8 @@
       <c r="E84" s="3">
         <v>3</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>288</v>
+      <c r="F84" s="4">
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5063,7 +2907,7 @@
         <v>9738</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -5074,8 +2918,8 @@
       <c r="E85" s="3">
         <v>3</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>253</v>
+      <c r="F85" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5083,7 +2927,7 @@
         <v>9775</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -5094,8 +2938,8 @@
       <c r="E86" s="3">
         <v>3</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>289</v>
+      <c r="F86" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5103,7 +2947,7 @@
         <v>10427</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>7</v>
@@ -5114,8 +2958,8 @@
       <c r="E87" s="3">
         <v>3</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>275</v>
+      <c r="F87" s="4">
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5123,7 +2967,7 @@
         <v>7343</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
@@ -5134,8 +2978,8 @@
       <c r="E88" s="3">
         <v>3</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>230</v>
+      <c r="F88" s="4">
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.35">
@@ -5143,7 +2987,7 @@
         <v>10530</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -5154,8 +2998,8 @@
       <c r="E89" s="3">
         <v>3</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>244</v>
+      <c r="F89" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5163,19 +3007,19 @@
         <v>10412</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E90" s="3">
         <v>3</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>290</v>
+      <c r="F90" s="4">
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5183,19 +3027,19 @@
         <v>4798</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E91" s="3">
         <v>3</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>291</v>
+      <c r="F91" s="4">
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5203,19 +3047,19 @@
         <v>4630</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E92" s="3">
         <v>3</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>292</v>
+      <c r="F92" s="4">
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5223,19 +3067,19 @@
         <v>6713</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E93" s="3">
         <v>3</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>233</v>
+      <c r="F93" s="4">
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5243,19 +3087,19 @@
         <v>9739</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E94" s="3">
         <v>3</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>293</v>
+      <c r="F94" s="4">
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5263,19 +3107,19 @@
         <v>8884</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E95" s="3">
         <v>3</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>294</v>
+      <c r="F95" s="4">
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5283,19 +3127,19 @@
         <v>8935</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E96" s="3">
         <v>3</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>295</v>
+      <c r="F96" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5303,19 +3147,19 @@
         <v>7345</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E97" s="3">
         <v>3</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>296</v>
+      <c r="F97" s="4">
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5323,19 +3167,19 @@
         <v>8936</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E98" s="3">
         <v>3</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>297</v>
+      <c r="F98" s="4">
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5343,19 +3187,19 @@
         <v>2074</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E99" s="3">
         <v>3</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>297</v>
+      <c r="F99" s="4">
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5363,19 +3207,19 @@
         <v>4626</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E100" s="3">
         <v>3</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>298</v>
+      <c r="F100" s="4">
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5383,19 +3227,19 @@
         <v>9785</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E101" s="3">
         <v>3</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>249</v>
+      <c r="F101" s="4">
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5403,19 +3247,19 @@
         <v>9251</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E102" s="3">
         <v>3</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>243</v>
+      <c r="F102" s="4">
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5423,19 +3267,19 @@
         <v>9252</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E103" s="3">
         <v>3</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>243</v>
+      <c r="F103" s="4">
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5443,19 +3287,19 @@
         <v>5991</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E104" s="3">
         <v>3</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>257</v>
+      <c r="F104" s="4">
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5463,19 +3307,19 @@
         <v>4543</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E105" s="3">
         <v>3</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>257</v>
+      <c r="F105" s="4">
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5483,19 +3327,19 @@
         <v>10358</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E106" s="3">
         <v>3</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>232</v>
+      <c r="F106" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5503,19 +3347,19 @@
         <v>9035</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E107" s="3">
         <v>3</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>250</v>
+      <c r="F107" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5523,19 +3367,19 @@
         <v>9784</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E108" s="3">
         <v>3</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>253</v>
+      <c r="F108" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5543,19 +3387,19 @@
         <v>10664</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E109" s="3">
         <v>3</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>299</v>
+      <c r="F109" s="4">
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5563,19 +3407,19 @@
         <v>10426</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E110" s="3">
         <v>3</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>298</v>
+      <c r="F110" s="4">
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5583,19 +3427,19 @@
         <v>10538</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E111" s="3">
         <v>3</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>271</v>
+      <c r="F111" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5614,8 +3458,8 @@
       <c r="E112" s="1">
         <v>3</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>12</v>
+      <c r="F112" s="2">
+        <v>2252</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5623,7 +3467,7 @@
         <v>9790</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>10</v>
@@ -5634,8 +3478,8 @@
       <c r="E113" s="1">
         <v>3</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>16</v>
+      <c r="F113" s="2">
+        <v>1727</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5643,7 +3487,7 @@
         <v>4763</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>7</v>
@@ -5654,8 +3498,8 @@
       <c r="E114" s="1">
         <v>3</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>18</v>
+      <c r="F114" s="2">
+        <v>1571</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5663,7 +3507,7 @@
         <v>9789</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>10</v>
@@ -5674,8 +3518,8 @@
       <c r="E115" s="1">
         <v>3</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>20</v>
+      <c r="F115" s="2">
+        <v>1448</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5683,7 +3527,7 @@
         <v>10528</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>10</v>
@@ -5694,8 +3538,8 @@
       <c r="E116" s="1">
         <v>3</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>22</v>
+      <c r="F116" s="2">
+        <v>1429</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5703,7 +3547,7 @@
         <v>9791</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>10</v>
@@ -5714,8 +3558,8 @@
       <c r="E117" s="1">
         <v>3</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>25</v>
+      <c r="F117" s="2">
+        <v>1353</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5723,7 +3567,7 @@
         <v>10132</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>10</v>
@@ -5734,8 +3578,8 @@
       <c r="E118" s="1">
         <v>3</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>34</v>
+      <c r="F118" s="2">
+        <v>815</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5743,7 +3587,7 @@
         <v>6714</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>7</v>
@@ -5754,8 +3598,8 @@
       <c r="E119" s="1">
         <v>3</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>49</v>
+      <c r="F119" s="2">
+        <v>381</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5763,7 +3607,7 @@
         <v>10402</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>10</v>
@@ -5774,8 +3618,8 @@
       <c r="E120" s="1">
         <v>3</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>51</v>
+      <c r="F120" s="2">
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5783,7 +3627,7 @@
         <v>8890</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>7</v>
@@ -5794,8 +3638,8 @@
       <c r="E121" s="1">
         <v>3</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>54</v>
+      <c r="F121" s="2">
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5803,7 +3647,7 @@
         <v>10136</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>10</v>
@@ -5814,8 +3658,8 @@
       <c r="E122" s="1">
         <v>3</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>61</v>
+      <c r="F122" s="2">
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5823,7 +3667,7 @@
         <v>9734</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>10</v>
@@ -5834,8 +3678,8 @@
       <c r="E123" s="1">
         <v>3</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>76</v>
+      <c r="F123" s="2">
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5843,7 +3687,7 @@
         <v>8885</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>7</v>
@@ -5854,8 +3698,8 @@
       <c r="E124" s="1">
         <v>3</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>83</v>
+      <c r="F124" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5863,7 +3707,7 @@
         <v>6846</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>7</v>
@@ -5874,8 +3718,8 @@
       <c r="E125" s="1">
         <v>3</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>89</v>
+      <c r="F125" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5883,7 +3727,7 @@
         <v>11320</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>7</v>
@@ -5894,8 +3738,8 @@
       <c r="E126" s="1">
         <v>3</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>92</v>
+      <c r="F126" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5903,7 +3747,7 @@
         <v>8937</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>7</v>
@@ -5914,8 +3758,8 @@
       <c r="E127" s="1">
         <v>3</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>96</v>
+      <c r="F127" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5923,7 +3767,7 @@
         <v>8892</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>7</v>
@@ -5934,8 +3778,8 @@
       <c r="E128" s="1">
         <v>3</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>103</v>
+      <c r="F128" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5943,7 +3787,7 @@
         <v>9733</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>10</v>
@@ -5954,8 +3798,8 @@
       <c r="E129" s="1">
         <v>3</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>139</v>
+      <c r="F129" s="2">
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5963,7 +3807,7 @@
         <v>8939</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>7</v>
@@ -5974,8 +3818,8 @@
       <c r="E130" s="1">
         <v>3</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>141</v>
+      <c r="F130" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5983,7 +3827,7 @@
         <v>4547</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>7</v>
@@ -5994,8 +3838,8 @@
       <c r="E131" s="1">
         <v>3</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>149</v>
+      <c r="F131" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6003,7 +3847,7 @@
         <v>5106</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>7</v>
@@ -6014,8 +3858,8 @@
       <c r="E132" s="1">
         <v>3</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>156</v>
+      <c r="F132" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6023,7 +3867,7 @@
         <v>10798</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>7</v>
@@ -6034,8 +3878,8 @@
       <c r="E133" s="1">
         <v>3</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>158</v>
+      <c r="F133" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6043,7 +3887,7 @@
         <v>5541</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>7</v>
@@ -6054,8 +3898,8 @@
       <c r="E134" s="1">
         <v>3</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>173</v>
+      <c r="F134" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6063,7 +3907,7 @@
         <v>3129</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>7</v>
@@ -6074,8 +3918,8 @@
       <c r="E135" s="1">
         <v>3</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>173</v>
+      <c r="F135" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6083,7 +3927,7 @@
         <v>4921</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>7</v>
@@ -6094,8 +3938,8 @@
       <c r="E136" s="1">
         <v>3</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>180</v>
+      <c r="F136" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6103,7 +3947,7 @@
         <v>10363</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>7</v>
@@ -6114,8 +3958,8 @@
       <c r="E137" s="1">
         <v>3</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>187</v>
+      <c r="F137" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6123,7 +3967,7 @@
         <v>5532</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>7</v>
@@ -6134,8 +3978,8 @@
       <c r="E138" s="1">
         <v>3</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>187</v>
+      <c r="F138" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6143,7 +3987,7 @@
         <v>10361</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>7</v>
@@ -6154,8 +3998,8 @@
       <c r="E139" s="1">
         <v>3</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>197</v>
+      <c r="F139" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6163,7 +4007,7 @@
         <v>4796</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>10</v>
@@ -6174,8 +4018,8 @@
       <c r="E140" s="1">
         <v>3</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>208</v>
+      <c r="F140" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6183,19 +4027,19 @@
         <v>6844</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E141" s="3">
         <v>3</v>
       </c>
-      <c r="F141" s="4" t="s">
-        <v>233</v>
+      <c r="F141" s="4">
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6203,19 +4047,19 @@
         <v>7338</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E142" s="3">
         <v>3</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>300</v>
+      <c r="F142" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6223,19 +4067,19 @@
         <v>8894</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E143" s="3">
         <v>3</v>
       </c>
-      <c r="F143" s="4" t="s">
-        <v>301</v>
+      <c r="F143" s="4">
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6243,19 +4087,19 @@
         <v>7744</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E144" s="3">
         <v>3</v>
       </c>
-      <c r="F144" s="4" t="s">
-        <v>286</v>
+      <c r="F144" s="4">
+        <v>68</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6263,19 +4107,19 @@
         <v>8263</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E145" s="3">
         <v>3</v>
       </c>
-      <c r="F145" s="4" t="s">
-        <v>302</v>
+      <c r="F145" s="4">
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6283,19 +4127,19 @@
         <v>8895</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E146" s="3">
         <v>3</v>
       </c>
-      <c r="F146" s="4" t="s">
-        <v>263</v>
+      <c r="F146" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6303,19 +4147,19 @@
         <v>6214</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E147" s="3">
         <v>3</v>
       </c>
-      <c r="F147" s="4" t="s">
-        <v>247</v>
+      <c r="F147" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6323,19 +4167,19 @@
         <v>7321</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E148" s="3">
         <v>3</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>303</v>
+      <c r="F148" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6343,19 +4187,19 @@
         <v>7207</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E149" s="3">
         <v>3</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>303</v>
+      <c r="F149" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6363,19 +4207,19 @@
         <v>7401</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E150" s="3">
         <v>3</v>
       </c>
-      <c r="F150" s="4" t="s">
-        <v>304</v>
+      <c r="F150" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6383,19 +4227,19 @@
         <v>7399</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E151" s="3">
         <v>3</v>
       </c>
-      <c r="F151" s="4" t="s">
-        <v>304</v>
+      <c r="F151" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6403,19 +4247,19 @@
         <v>9937</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E152" s="3">
         <v>3</v>
       </c>
-      <c r="F152" s="4" t="s">
-        <v>275</v>
+      <c r="F152" s="4">
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6423,19 +4267,19 @@
         <v>7369</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E153" s="3">
         <v>3</v>
       </c>
-      <c r="F153" s="4" t="s">
-        <v>305</v>
+      <c r="F153" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6443,19 +4287,19 @@
         <v>9453</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E154" s="3">
         <v>3</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>306</v>
+      <c r="F154" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6463,19 +4307,19 @@
         <v>5698</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E155" s="3">
         <v>3</v>
       </c>
-      <c r="F155" s="4" t="s">
-        <v>307</v>
+      <c r="F155" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6483,19 +4327,19 @@
         <v>501300</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>308</v>
+        <v>175</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E156" s="1">
         <v>3</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>309</v>
+      <c r="F156" s="2">
+        <v>274</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6503,19 +4347,19 @@
         <v>600010</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>310</v>
+        <v>176</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E157" s="1">
         <v>3</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>311</v>
+      <c r="F157" s="2">
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6523,19 +4367,19 @@
         <v>500398</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E158" s="1">
         <v>3</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>313</v>
+      <c r="F158" s="2">
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6543,19 +4387,19 @@
         <v>501328</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>314</v>
+        <v>178</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E159" s="1">
         <v>3</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>65</v>
+      <c r="F159" s="2">
+        <v>197</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6563,19 +4407,19 @@
         <v>501270</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>316</v>
+        <v>180</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E160" s="1">
         <v>3</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>317</v>
+      <c r="F160" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6583,19 +4427,19 @@
         <v>501301</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E161" s="1">
         <v>3</v>
       </c>
-      <c r="F161" s="2" t="s">
-        <v>319</v>
+      <c r="F161" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6603,19 +4447,19 @@
         <v>10362</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>320</v>
+        <v>182</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E162" s="1">
         <v>3</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>321</v>
+      <c r="F162" s="2">
+        <v>144</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6623,19 +4467,19 @@
         <v>501272</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E163" s="1">
         <v>3</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>323</v>
+      <c r="F163" s="2">
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6643,19 +4487,19 @@
         <v>10406</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>324</v>
+        <v>184</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E164" s="1">
         <v>3</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>325</v>
+      <c r="F164" s="2">
+        <v>117</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6663,19 +4507,19 @@
         <v>501302</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E165" s="1">
         <v>3</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>327</v>
+      <c r="F165" s="2">
+        <v>108</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6683,19 +4527,19 @@
         <v>501309</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>328</v>
+        <v>186</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E166" s="1">
         <v>3</v>
       </c>
-      <c r="F166" s="2" t="s">
-        <v>327</v>
+      <c r="F166" s="2">
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6703,19 +4547,19 @@
         <v>10404</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>329</v>
+        <v>187</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E167" s="1">
         <v>3</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>330</v>
+      <c r="F167" s="2">
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6723,19 +4567,19 @@
         <v>501238</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>331</v>
+        <v>188</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E168" s="1">
         <v>3</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>83</v>
+      <c r="F168" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6743,19 +4587,19 @@
         <v>501253</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>332</v>
+        <v>189</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E169" s="1">
         <v>3</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>333</v>
+      <c r="F169" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6763,19 +4607,19 @@
         <v>501307</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>334</v>
+        <v>190</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E170" s="1">
         <v>3</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>335</v>
+      <c r="F170" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6783,19 +4627,19 @@
         <v>4546</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>336</v>
+        <v>191</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E171" s="1">
         <v>3</v>
       </c>
-      <c r="F171" s="2" t="s">
-        <v>337</v>
+      <c r="F171" s="2">
+        <v>82</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6803,19 +4647,19 @@
         <v>500214</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>338</v>
+        <v>192</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E172" s="1">
         <v>3</v>
       </c>
-      <c r="F172" s="2" t="s">
-        <v>339</v>
+      <c r="F172" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6823,19 +4667,19 @@
         <v>501341</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>340</v>
+        <v>193</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E173" s="1">
         <v>3</v>
       </c>
-      <c r="F173" s="2" t="s">
-        <v>339</v>
+      <c r="F173" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6843,19 +4687,19 @@
         <v>501343</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>341</v>
+        <v>194</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E174" s="1">
         <v>3</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>342</v>
+      <c r="F174" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6863,19 +4707,19 @@
         <v>501274</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>343</v>
+        <v>195</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E175" s="1">
         <v>3</v>
       </c>
-      <c r="F175" s="2" t="s">
-        <v>344</v>
+      <c r="F175" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6883,19 +4727,19 @@
         <v>501286</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>345</v>
+        <v>196</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E176" s="1">
         <v>3</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>94</v>
+      <c r="F176" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6903,19 +4747,19 @@
         <v>500191</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E177" s="1">
         <v>3</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>101</v>
+      <c r="F177" s="2">
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6923,19 +4767,19 @@
         <v>600017</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>346</v>
+        <v>197</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E178" s="1">
         <v>3</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>103</v>
+      <c r="F178" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6943,19 +4787,19 @@
         <v>501339</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>347</v>
+        <v>198</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E179" s="1">
         <v>3</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>112</v>
+      <c r="F179" s="2">
+        <v>63</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6963,19 +4807,19 @@
         <v>501323</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E180" s="1">
         <v>3</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>116</v>
+      <c r="F180" s="2">
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6983,19 +4827,19 @@
         <v>501271</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>349</v>
+        <v>200</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E181" s="1">
         <v>3</v>
       </c>
-      <c r="F181" s="2" t="s">
-        <v>118</v>
+      <c r="F181" s="2">
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7003,19 +4847,19 @@
         <v>600020</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E182" s="1">
         <v>3</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>351</v>
+      <c r="F182" s="2">
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7023,19 +4867,19 @@
         <v>10407</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E183" s="1">
         <v>3</v>
       </c>
-      <c r="F183" s="2" t="s">
-        <v>353</v>
+      <c r="F183" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7043,19 +4887,19 @@
         <v>600030</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>354</v>
+        <v>203</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E184" s="1">
         <v>3</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>131</v>
+      <c r="F184" s="2">
+        <v>52</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7063,19 +4907,19 @@
         <v>501277</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>355</v>
+        <v>204</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E185" s="1">
         <v>3</v>
       </c>
-      <c r="F185" s="2" t="s">
-        <v>133</v>
+      <c r="F185" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7083,19 +4927,19 @@
         <v>501266</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>356</v>
+        <v>205</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E186" s="1">
         <v>3</v>
       </c>
-      <c r="F186" s="2" t="s">
-        <v>136</v>
+      <c r="F186" s="2">
+        <v>48</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7103,19 +4947,19 @@
         <v>600011</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>357</v>
+        <v>206</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E187" s="1">
         <v>3</v>
       </c>
-      <c r="F187" s="2" t="s">
-        <v>358</v>
+      <c r="F187" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7123,19 +4967,19 @@
         <v>6100</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>359</v>
+        <v>207</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E188" s="1">
         <v>3</v>
       </c>
-      <c r="F188" s="2" t="s">
-        <v>139</v>
+      <c r="F188" s="2">
+        <v>44</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7143,19 +4987,19 @@
         <v>501316</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>360</v>
+        <v>208</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E189" s="1">
         <v>3</v>
       </c>
-      <c r="F189" s="2" t="s">
-        <v>139</v>
+      <c r="F189" s="2">
+        <v>44</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7163,19 +5007,19 @@
         <v>600008</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>264</v>
+        <v>162</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E190" s="1">
         <v>3</v>
       </c>
-      <c r="F190" s="2" t="s">
-        <v>141</v>
+      <c r="F190" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7183,19 +5027,19 @@
         <v>501331</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>361</v>
+        <v>209</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E191" s="1">
         <v>3</v>
       </c>
-      <c r="F191" s="2" t="s">
-        <v>144</v>
+      <c r="F191" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7203,19 +5047,19 @@
         <v>600026</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E192" s="1">
         <v>3</v>
       </c>
-      <c r="F192" s="2" t="s">
-        <v>363</v>
+      <c r="F192" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7223,19 +5067,19 @@
         <v>7495</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>364</v>
+        <v>211</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E193" s="1">
         <v>3</v>
       </c>
-      <c r="F193" s="2" t="s">
-        <v>158</v>
+      <c r="F193" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7243,19 +5087,19 @@
         <v>5537</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>365</v>
+        <v>212</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E194" s="1">
         <v>3</v>
       </c>
-      <c r="F194" s="2" t="s">
-        <v>158</v>
+      <c r="F194" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7263,19 +5107,19 @@
         <v>600021</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>366</v>
+        <v>213</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E195" s="1">
         <v>3</v>
       </c>
-      <c r="F195" s="2" t="s">
-        <v>160</v>
+      <c r="F195" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7283,19 +5127,19 @@
         <v>501280</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>367</v>
+        <v>214</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E196" s="1">
         <v>3</v>
       </c>
-      <c r="F196" s="2" t="s">
-        <v>160</v>
+      <c r="F196" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7303,19 +5147,19 @@
         <v>600035</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>368</v>
+        <v>215</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E197" s="1">
         <v>3</v>
       </c>
-      <c r="F197" s="2" t="s">
-        <v>164</v>
+      <c r="F197" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7323,19 +5167,19 @@
         <v>500914</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>369</v>
+        <v>216</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E198" s="1">
         <v>3</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>164</v>
+      <c r="F198" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7343,19 +5187,19 @@
         <v>501281</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>370</v>
+        <v>217</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E199" s="1">
         <v>3</v>
       </c>
-      <c r="F199" s="2" t="s">
-        <v>167</v>
+      <c r="F199" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7363,19 +5207,19 @@
         <v>600031</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>371</v>
+        <v>218</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E200" s="1">
         <v>3</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>169</v>
+      <c r="F200" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7383,19 +5227,19 @@
         <v>600005</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>372</v>
+        <v>219</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E201" s="1">
         <v>3</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>173</v>
+      <c r="F201" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7403,19 +5247,19 @@
         <v>10403</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>373</v>
+        <v>220</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E202" s="1">
         <v>3</v>
       </c>
-      <c r="F202" s="2" t="s">
-        <v>177</v>
+      <c r="F202" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7423,19 +5267,19 @@
         <v>501324</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>374</v>
+        <v>221</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E203" s="1">
         <v>3</v>
       </c>
-      <c r="F203" s="2" t="s">
-        <v>180</v>
+      <c r="F203" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7443,19 +5287,19 @@
         <v>600037</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>375</v>
+        <v>222</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E204" s="1">
         <v>3</v>
       </c>
-      <c r="F204" s="2" t="s">
-        <v>180</v>
+      <c r="F204" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7463,19 +5307,19 @@
         <v>500842</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>376</v>
+        <v>223</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E205" s="1">
         <v>3</v>
       </c>
-      <c r="F205" s="2" t="s">
-        <v>180</v>
+      <c r="F205" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7483,19 +5327,19 @@
         <v>501273</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>377</v>
+        <v>224</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E206" s="1">
         <v>3</v>
       </c>
-      <c r="F206" s="2" t="s">
-        <v>180</v>
+      <c r="F206" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7503,19 +5347,19 @@
         <v>600028</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>378</v>
+        <v>225</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E207" s="1">
         <v>3</v>
       </c>
-      <c r="F207" s="2" t="s">
-        <v>183</v>
+      <c r="F207" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7523,19 +5367,19 @@
         <v>8881</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>379</v>
+        <v>226</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E208" s="1">
         <v>3</v>
       </c>
-      <c r="F208" s="2" t="s">
-        <v>183</v>
+      <c r="F208" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7543,19 +5387,19 @@
         <v>1430</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>380</v>
+        <v>227</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E209" s="1">
         <v>3</v>
       </c>
-      <c r="F209" s="2" t="s">
-        <v>183</v>
+      <c r="F209" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7563,19 +5407,19 @@
         <v>5831</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>381</v>
+        <v>228</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E210" s="1">
         <v>3</v>
       </c>
-      <c r="F210" s="2" t="s">
-        <v>187</v>
+      <c r="F210" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7583,19 +5427,19 @@
         <v>600036</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>382</v>
+        <v>229</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E211" s="1">
         <v>3</v>
       </c>
-      <c r="F211" s="2" t="s">
-        <v>187</v>
+      <c r="F211" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7603,19 +5447,19 @@
         <v>600015</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E212" s="1">
         <v>3</v>
       </c>
-      <c r="F212" s="2" t="s">
-        <v>191</v>
+      <c r="F212" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7623,19 +5467,19 @@
         <v>7553</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>383</v>
+        <v>230</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E213" s="1">
         <v>3</v>
       </c>
-      <c r="F213" s="2" t="s">
-        <v>191</v>
+      <c r="F213" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7643,19 +5487,19 @@
         <v>500261</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>384</v>
+        <v>231</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E214" s="1">
         <v>3</v>
       </c>
-      <c r="F214" s="2" t="s">
-        <v>191</v>
+      <c r="F214" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7663,19 +5507,19 @@
         <v>501293</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>385</v>
+        <v>232</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E215" s="1">
         <v>3</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>191</v>
+      <c r="F215" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7683,19 +5527,19 @@
         <v>600018</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>272</v>
+        <v>168</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E216" s="1">
         <v>3</v>
       </c>
-      <c r="F216" s="2" t="s">
-        <v>191</v>
+      <c r="F216" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7703,19 +5547,19 @@
         <v>10396</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>386</v>
+        <v>233</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E217" s="1">
         <v>3</v>
       </c>
-      <c r="F217" s="2" t="s">
-        <v>193</v>
+      <c r="F217" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7723,19 +5567,19 @@
         <v>5173</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>387</v>
+        <v>234</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E218" s="1">
         <v>3</v>
       </c>
-      <c r="F218" s="2" t="s">
-        <v>197</v>
+      <c r="F218" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7743,19 +5587,19 @@
         <v>600013</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>388</v>
+        <v>235</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E219" s="1">
         <v>3</v>
       </c>
-      <c r="F219" s="2" t="s">
-        <v>200</v>
+      <c r="F219" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7763,19 +5607,19 @@
         <v>7568</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>389</v>
+        <v>236</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E220" s="1">
         <v>3</v>
       </c>
-      <c r="F220" s="2" t="s">
-        <v>200</v>
+      <c r="F220" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7783,19 +5627,19 @@
         <v>4540</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>390</v>
+        <v>237</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E221" s="1">
         <v>3</v>
       </c>
-      <c r="F221" s="2" t="s">
-        <v>204</v>
+      <c r="F221" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7803,19 +5647,19 @@
         <v>8261</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>391</v>
+        <v>238</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E222" s="1">
         <v>3</v>
       </c>
-      <c r="F222" s="2" t="s">
-        <v>204</v>
+      <c r="F222" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7823,19 +5667,19 @@
         <v>7358</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>392</v>
+        <v>239</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="E223" s="1">
         <v>3</v>
       </c>
-      <c r="F223" s="2" t="s">
-        <v>204</v>
+      <c r="F223" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7843,19 +5687,19 @@
         <v>500915</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>393</v>
+        <v>240</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E224" s="1">
         <v>3</v>
       </c>
-      <c r="F224" s="2" t="s">
-        <v>394</v>
+      <c r="F224" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7863,19 +5707,19 @@
         <v>7357</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>395</v>
+        <v>241</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E225" s="1">
         <v>3</v>
       </c>
-      <c r="F225" s="2" t="s">
-        <v>394</v>
+      <c r="F225" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7883,19 +5727,19 @@
         <v>501310</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>396</v>
+        <v>242</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E226" s="1">
         <v>3</v>
       </c>
-      <c r="F226" s="2" t="s">
-        <v>394</v>
+      <c r="F226" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7903,19 +5747,19 @@
         <v>6274</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="E227" s="1">
         <v>3</v>
       </c>
-      <c r="F227" s="2" t="s">
-        <v>208</v>
+      <c r="F227" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -7923,19 +5767,19 @@
         <v>7336</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>398</v>
+        <v>244</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="E228" s="1">
         <v>3</v>
       </c>
-      <c r="F228" s="2" t="s">
-        <v>208</v>
+      <c r="F228" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
